--- a/online_translators/xlsx_accuracy/yandex_sharp_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/yandex_sharp_compatibility.xlsx
@@ -412,13 +412,13 @@
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="n">
-        <v>0.6125</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -426,14 +426,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5183823529411765</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.618421052631579</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -441,14 +441,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4669117647058824</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4875</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="n">
-        <v>0.5259259259259259</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5661764705882353</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7685185185185185</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5703703703703704</v>
+        <v>0.5657894736842105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7279411764705882</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.575</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="E6" t="s"/>
     </row>
